--- a/Progress Record.xlsx
+++ b/Progress Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vijayvinod\Desktop\A Levels\EPQ\ProblemsInGraphColouring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73B169B-D623-40A2-9D40-D89B19E7269F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AEF874-6001-45A7-AC3F-4DFD48B3D635}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Task</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Details</t>
   </si>
   <si>
-    <t>Create a Graph Visualisation Program</t>
-  </si>
-  <si>
     <t>Date Assigned</t>
   </si>
   <si>
@@ -45,10 +42,25 @@
     <t>Immediately trying to impliment this as a GUI application doesn't seem feasable so I will create a console appliction first.</t>
   </si>
   <si>
-    <t>Research Planar Graphs</t>
-  </si>
-  <si>
     <t>I will have to write a paragraph or two about Planar Graphs as they are essential in understanding the Four Colour Theorem.</t>
+  </si>
+  <si>
+    <t>Create a Graph Visualisation Program (Part 1)</t>
+  </si>
+  <si>
+    <t>Made a start on the program and now it can draw basic graphs pritty well.</t>
+  </si>
+  <si>
+    <t>Create a Graph Visualisation Program (Init)</t>
+  </si>
+  <si>
+    <t>Research Planar Graphs (Init)</t>
+  </si>
+  <si>
+    <t>Research Planar Graphs (Part 1)</t>
+  </si>
+  <si>
+    <t>Watched a few videos on planar graphs including one from numberphile to improve my understanding of planar graphs.</t>
   </si>
 </sst>
 </file>
@@ -84,7 +96,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -95,14 +107,17 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -128,13 +143,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1236B297-56D5-49E7-810A-62991B5366FE}" name="Table1" displayName="Table1" ref="A1:D12" totalsRowShown="0">
-  <autoFilter ref="A1:D12" xr:uid="{FF80DE69-90A7-4E1C-BA18-FB953FCCFFB8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1236B297-56D5-49E7-810A-62991B5366FE}" name="Table1" displayName="Table1" ref="A1:D13" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="A1:D13" xr:uid="{FF80DE69-90A7-4E1C-BA18-FB953FCCFFB8}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B2C8C169-9B85-463B-BC75-40F1384EA3E7}" name="Task" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{813BC610-5EE5-4E71-A695-25E86D22D983}" name="Details" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{5302D681-E656-44D5-853F-CA138C12E0DE}" name="Date Assigned" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{0CF1AF97-7355-4051-862F-0F4D516C5791}" name="Completion Date" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{B2C8C169-9B85-463B-BC75-40F1384EA3E7}" name="Task" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{813BC610-5EE5-4E71-A695-25E86D22D983}" name="Details" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{5302D681-E656-44D5-853F-CA138C12E0DE}" name="Date Assigned" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{0CF1AF97-7355-4051-862F-0F4D516C5791}" name="Completion Date" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -403,15 +418,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.85546875" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="18.140625" customWidth="1"/>
@@ -426,25 +441,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3">
         <v>44148</v>
       </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -454,61 +469,83 @@
       <c r="C3" s="3">
         <v>44148</v>
       </c>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
+      <c r="D3" s="3">
+        <v>44149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3">
+        <v>44148</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3">
+        <v>44148</v>
+      </c>
+      <c r="D5" s="3">
+        <v>44148</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Progress Record.xlsx
+++ b/Progress Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vijayvinod\Desktop\A Levels\EPQ\ProblemsInGraphColouring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AEF874-6001-45A7-AC3F-4DFD48B3D635}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9859C09-F7D0-4E60-8828-236DE281BFDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Task</t>
   </si>
@@ -45,30 +45,78 @@
     <t>I will have to write a paragraph or two about Planar Graphs as they are essential in understanding the Four Colour Theorem.</t>
   </si>
   <si>
-    <t>Create a Graph Visualisation Program (Part 1)</t>
-  </si>
-  <si>
     <t>Made a start on the program and now it can draw basic graphs pritty well.</t>
   </si>
   <si>
-    <t>Create a Graph Visualisation Program (Init)</t>
-  </si>
-  <si>
-    <t>Research Planar Graphs (Init)</t>
-  </si>
-  <si>
-    <t>Research Planar Graphs (Part 1)</t>
-  </si>
-  <si>
     <t>Watched a few videos on planar graphs including one from numberphile to improve my understanding of planar graphs.</t>
+  </si>
+  <si>
+    <t>Sub Task: Start implimenting the program. (Part 1)</t>
+  </si>
+  <si>
+    <t>Finished implimenting the 'drawing' function.</t>
+  </si>
+  <si>
+    <t>Sub Task: Complete the drawing function (Part 2)</t>
+  </si>
+  <si>
+    <t>Create a Graph Visualisation Program</t>
+  </si>
+  <si>
+    <t>Research Planar Graphs</t>
+  </si>
+  <si>
+    <t>Research Graph Colouring</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Need to read through </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A Guide to Graph Colouring</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> by R.M.R. Lewis and make notes.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -96,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -106,15 +154,27 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -128,6 +188,9 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -143,13 +206,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1236B297-56D5-49E7-810A-62991B5366FE}" name="Table1" displayName="Table1" ref="A1:D13" totalsRowShown="0" dataDxfId="0">
-  <autoFilter ref="A1:D13" xr:uid="{FF80DE69-90A7-4E1C-BA18-FB953FCCFFB8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1236B297-56D5-49E7-810A-62991B5366FE}" name="Table1" displayName="Table1" ref="A1:D14" totalsRowShown="0" dataDxfId="4">
+  <autoFilter ref="A1:D14" xr:uid="{FF80DE69-90A7-4E1C-BA18-FB953FCCFFB8}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B2C8C169-9B85-463B-BC75-40F1384EA3E7}" name="Task" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{813BC610-5EE5-4E71-A695-25E86D22D983}" name="Details" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{5302D681-E656-44D5-853F-CA138C12E0DE}" name="Date Assigned" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{0CF1AF97-7355-4051-862F-0F4D516C5791}" name="Completion Date" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{B2C8C169-9B85-463B-BC75-40F1384EA3E7}" name="Task" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{813BC610-5EE5-4E71-A695-25E86D22D983}" name="Details" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{5302D681-E656-44D5-853F-CA138C12E0DE}" name="Date Assigned" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{0CF1AF97-7355-4051-862F-0F4D516C5791}" name="Completion Date" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -418,16 +481,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="18.140625" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
@@ -448,67 +511,75 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
+      <c r="A2" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="6">
         <v>44148</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7">
+        <v>44149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8">
+        <v>44159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6">
+        <v>44148</v>
+      </c>
+      <c r="D5" s="7">
+        <v>44148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C6" s="7"/>
+      <c r="D6" s="6">
         <v>44148</v>
       </c>
-      <c r="D3" s="3">
-        <v>44149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3">
-        <v>44148</v>
-      </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3">
-        <v>44148</v>
-      </c>
-      <c r="D5" s="3">
-        <v>44148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5">
+        <v>44159</v>
+      </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -547,10 +618,17 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Progress Record.xlsx
+++ b/Progress Record.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vijayvinod\Desktop\A Levels\EPQ\ProblemsInGraphColouring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9859C09-F7D0-4E60-8828-236DE281BFDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98165FF4-F4B2-4E6E-983A-E9B9F8DBF073}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Task</t>
   </si>
@@ -93,6 +93,24 @@
       </rPr>
       <t xml:space="preserve"> by R.M.R. Lewis and make notes.</t>
     </r>
+  </si>
+  <si>
+    <t>Heard the deadline is next month!!! Current word count 300… It's time to get serious!</t>
+  </si>
+  <si>
+    <t>Okay I'm back, getting serious is working, almost 2500 words!!!</t>
+  </si>
+  <si>
+    <t>Trimming down the extras.</t>
+  </si>
+  <si>
+    <t>5000 word mark.</t>
+  </si>
+  <si>
+    <t>6000 word mark.</t>
+  </si>
+  <si>
+    <t>Read and understood the proof that there is always an arrangement of verticies to the Greedy algorithm that yealds the optimum colouring.</t>
   </si>
 </sst>
 </file>
@@ -144,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -169,6 +187,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -206,8 +227,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1236B297-56D5-49E7-810A-62991B5366FE}" name="Table1" displayName="Table1" ref="A1:D14" totalsRowShown="0" dataDxfId="4">
-  <autoFilter ref="A1:D14" xr:uid="{FF80DE69-90A7-4E1C-BA18-FB953FCCFFB8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1236B297-56D5-49E7-810A-62991B5366FE}" name="Table1" displayName="Table1" ref="A1:D15" totalsRowShown="0" dataDxfId="4">
+  <autoFilter ref="A1:D15" xr:uid="{FF80DE69-90A7-4E1C-BA18-FB953FCCFFB8}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B2C8C169-9B85-463B-BC75-40F1384EA3E7}" name="Task" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{813BC610-5EE5-4E71-A695-25E86D22D983}" name="Details" dataDxfId="2"/>
@@ -481,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,39 +603,57 @@
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="3">
+        <v>44156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3">
+        <v>44175</v>
+      </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3">
+        <v>44189</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
@@ -623,6 +662,12 @@
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
